--- a/general/לעשות.xlsx
+++ b/general/לעשות.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t xml:space="preserve">מס'</t>
   </si>
@@ -352,7 +352,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -443,7 +443,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="1" sqref="C11:C12 C16"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -507,7 +507,9 @@
       <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
@@ -539,7 +541,9 @@
       <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="13"/>
       <c r="F5" s="14"/>

--- a/general/לעשות.xlsx
+++ b/general/לעשות.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t xml:space="preserve">מס'</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">קונספטים שבדקתי את הרוב - לסיים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">running</t>
   </si>
   <si>
     <t xml:space="preserve">גודל קונספט</t>
@@ -443,7 +446,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -526,9 +529,11 @@
       <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="14"/>
@@ -539,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>8</v>
@@ -555,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>8</v>
@@ -570,7 +575,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="11"/>
@@ -583,7 +588,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>1</v>
@@ -598,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -611,7 +616,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="11"/>
@@ -624,7 +629,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>8</v>
@@ -639,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>8</v>

--- a/general/לעשות.xlsx
+++ b/general/לעשות.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tamir\Personal\master\Master_git\Master\general\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tamir\תואר שני\master\Master_git\Master\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E86603-8996-449A-9F63-3E2FFD158B6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>מס'</t>
   </si>
@@ -102,15 +103,12 @@
   </si>
   <si>
     <t xml:space="preserve">להוסיף את התוצאות של סימולציה עד 220 </t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,16 +455,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="A1:G23" totalsRowShown="0">
-  <autoFilter ref="A1:G23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:G23" totalsRowShown="0">
+  <autoFilter ref="A1:G23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="מס'"/>
-    <tableColumn id="2" name="כללי"/>
-    <tableColumn id="3" name="בוצע?"/>
-    <tableColumn id="4" name="אופטימיזציה"/>
-    <tableColumn id="5" name="בוצע?2"/>
-    <tableColumn id="6" name="סימולטור"/>
-    <tableColumn id="7" name="בוצע"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="מס'"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="כללי"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="בוצע?"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="אופטימיזציה"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="בוצע?2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="סימולטור"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="בוצע"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -734,11 +732,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +798,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>10</v>
@@ -821,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>13</v>
@@ -889,7 +887,9 @@
       <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" s="11"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14"/>
